--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_5_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>777382.793339154</v>
+        <v>645388.9854999236</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>699722.0712025397</v>
+        <v>699722.0712025395</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23150228.43445525</v>
+        <v>23150228.43445527</v>
       </c>
     </row>
     <row r="9">
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>61.59674485649781</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.59674485649781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>54.25441286960326</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>61.59674485649781</v>
-      </c>
-      <c r="R11" t="n">
-        <v>61.59674485649781</v>
-      </c>
-      <c r="S11" t="n">
-        <v>61.59674485649781</v>
-      </c>
-      <c r="T11" t="n">
-        <v>54.25441286960327</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>61.59674485649781</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>28.6594870054074</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,61 +1463,61 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>25.59492586419587</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>61.59674485649781</v>
       </c>
-      <c r="H12" t="n">
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>61.59674485649781</v>
-      </c>
-      <c r="I12" t="n">
-        <v>61.59674485649781</v>
-      </c>
-      <c r="J12" t="n">
-        <v>54.25441286960327</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>58.79107329744018</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>58.79107329744021</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>65.80388905528922</v>
+        <v>34.31536198239787</v>
       </c>
       <c r="H15" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>59.73454266340464</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,16 +1730,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>24.47571131504229</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1846,67 +1846,67 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>58.79107329744022</v>
       </c>
       <c r="F17" t="n">
-        <v>58.79107329744023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>66.74735842125364</v>
-      </c>
-      <c r="H17" t="n">
-        <v>66.74735842125364</v>
-      </c>
-      <c r="I17" t="n">
-        <v>66.74735842125364</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>58.79107329744023</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,40 +1940,40 @@
         <v>66.74735842125364</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>66.74735842125364</v>
       </c>
-      <c r="I18" t="n">
+      <c r="S18" t="n">
         <v>66.74735842125364</v>
-      </c>
-      <c r="J18" t="n">
-        <v>58.79107329744022</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>66.74735842125362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>58.79107329744018</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3.62568893017874</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.74735842125362</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="R20" t="n">
-        <v>66.74735842125362</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>55.16538436726142</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2204,31 +2204,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>24.47571131504229</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>66.74735842125362</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>66.74735842125362</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>34.31536198239788</v>
+        <v>58.79107329744023</v>
       </c>
       <c r="V21" t="n">
-        <v>66.74735842125362</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>66.74735842125364</v>
       </c>
     </row>
     <row r="22">
@@ -2329,64 +2329,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>102.9737774231109</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>26.66959923987776</v>
+      </c>
+      <c r="R23" t="n">
         <v>102.9737774231109</v>
       </c>
-      <c r="I23" t="n">
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>102.9737774231109</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>102.9737774231109</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>26.66959923987776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,40 +2417,40 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>24.47571131504229</v>
+      </c>
+      <c r="R24" t="n">
         <v>102.9737774231109</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>102.9737774231109</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>102.9737774231109</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>102.9737774231109</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>102.9737774231109</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>90.69930315427612</v>
+        <v>66.22359183923385</v>
       </c>
     </row>
     <row r="25">
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>102.9737774231109</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>102.9737774231109</v>
       </c>
       <c r="G26" t="n">
-        <v>58.35714347180797</v>
+        <v>102.9737774231109</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>26.66959923987779</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>71.28623319118077</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>102.9737774231109</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>102.9737774231109</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2642,61 +2642,61 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>24.47571131504229</v>
+      </c>
+      <c r="R27" t="n">
         <v>102.9737774231109</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="S27" t="n">
         <v>102.9737774231109</v>
       </c>
-      <c r="H27" t="n">
-        <v>90.69930315427612</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>102.9737774231109</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>102.9737774231109</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>66.22359183923385</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>26.66959923987776</v>
+      </c>
+      <c r="F29" t="n">
         <v>102.9737774231109</v>
       </c>
-      <c r="C29" t="n">
+      <c r="G29" t="n">
         <v>102.9737774231109</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>26.66959923987779</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>102.9737774231109</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>102.9737774231109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90.69930315427609</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2882,61 +2882,61 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>102.9737774231109</v>
       </c>
-      <c r="G30" t="n">
+      <c r="V30" t="n">
         <v>102.9737774231109</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
+      <c r="W30" t="n">
         <v>102.9737774231109</v>
       </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>90.69930315427612</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>102.9737774231109</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>102.9737774231109</v>
       </c>
       <c r="V32" t="n">
         <v>26.66959923987776</v>
       </c>
       <c r="W32" t="n">
-        <v>102.9737774231109</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>102.9737774231109</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.9737774231109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,73 +3107,73 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>102.9737774231109</v>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>102.9737774231109</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>24.47571131504229</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>102.9737774231109</v>
       </c>
-      <c r="I33" t="n">
-        <v>102.9737774231109</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
-        <v>90.69930315427609</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>66.22359183923382</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>71.89797198600928</v>
+        <v>58.48358166762414</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>58.4835816676242</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>71.89797198600958</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>71.89797198600958</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>71.89797198600958</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>71.89797198600928</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>71.89797198600928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>71.89797198600928</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>59.73454266340464</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>71.89797198600958</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>71.89797198600958</v>
       </c>
       <c r="W36" t="n">
-        <v>71.89797198600928</v>
+        <v>71.89797198600958</v>
       </c>
       <c r="X36" t="n">
-        <v>3.593191061872327</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>71.89797198600928</v>
+        <v>63.3277337252772</v>
       </c>
     </row>
     <row r="37">
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>66.74735842125365</v>
+        <v>58.79107329744011</v>
       </c>
       <c r="X38" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>58.79107329744009</v>
+        <v>66.74735842125362</v>
       </c>
     </row>
     <row r="39">
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>34.3153619823979</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>24.47571131504229</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>58.79107329744017</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="W39" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>3.62568893017874</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>55.16538436726147</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>58.79107329744017</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
     </row>
     <row r="42">
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>58.79107329744017</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>58.7910732974402</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="Y42" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>58.7910732974402</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>58.79107329744023</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125364</v>
       </c>
     </row>
     <row r="45">
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.3153619823979</v>
+        <v>59.73454266340464</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>24.47571131504229</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>65.80388905528922</v>
       </c>
       <c r="W45" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.927739588519825</v>
+        <v>129.3656079854851</v>
       </c>
       <c r="C11" t="n">
-        <v>4.927739588519825</v>
+        <v>129.3656079854851</v>
       </c>
       <c r="D11" t="n">
-        <v>4.927739588519825</v>
+        <v>129.3656079854851</v>
       </c>
       <c r="E11" t="n">
-        <v>4.927739588519825</v>
+        <v>129.3656079854851</v>
       </c>
       <c r="F11" t="n">
-        <v>4.927739588519825</v>
+        <v>129.3656079854851</v>
       </c>
       <c r="G11" t="n">
-        <v>4.927739588519825</v>
+        <v>129.3656079854851</v>
       </c>
       <c r="H11" t="n">
-        <v>4.927739588519825</v>
+        <v>67.14667378700246</v>
       </c>
       <c r="I11" t="n">
         <v>4.927739588519825</v>
@@ -5062,31 +5062,31 @@
         <v>246.3869794259912</v>
       </c>
       <c r="Q11" t="n">
-        <v>184.1680452275086</v>
+        <v>191.5845421839677</v>
       </c>
       <c r="R11" t="n">
-        <v>121.949111029026</v>
+        <v>191.5845421839677</v>
       </c>
       <c r="S11" t="n">
-        <v>59.73017683054334</v>
+        <v>191.5845421839677</v>
       </c>
       <c r="T11" t="n">
-        <v>4.927739588519825</v>
+        <v>191.5845421839677</v>
       </c>
       <c r="U11" t="n">
-        <v>4.927739588519825</v>
+        <v>191.5845421839677</v>
       </c>
       <c r="V11" t="n">
-        <v>4.927739588519825</v>
+        <v>129.3656079854851</v>
       </c>
       <c r="W11" t="n">
-        <v>4.927739588519825</v>
+        <v>129.3656079854851</v>
       </c>
       <c r="X11" t="n">
-        <v>4.927739588519825</v>
+        <v>129.3656079854851</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.927739588519825</v>
+        <v>129.3656079854851</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>246.3869794259912</v>
+        <v>33.87671636165862</v>
       </c>
       <c r="C12" t="n">
-        <v>246.3869794259912</v>
+        <v>4.927739588519825</v>
       </c>
       <c r="D12" t="n">
-        <v>246.3869794259912</v>
+        <v>4.927739588519825</v>
       </c>
       <c r="E12" t="n">
-        <v>246.3869794259912</v>
+        <v>4.927739588519825</v>
       </c>
       <c r="F12" t="n">
-        <v>246.3869794259912</v>
+        <v>4.927739588519825</v>
       </c>
       <c r="G12" t="n">
-        <v>184.1680452275086</v>
+        <v>4.927739588519825</v>
       </c>
       <c r="H12" t="n">
-        <v>121.949111029026</v>
+        <v>4.927739588519825</v>
       </c>
       <c r="I12" t="n">
-        <v>59.73017683054334</v>
+        <v>4.927739588519825</v>
       </c>
       <c r="J12" t="n">
         <v>4.927739588519825</v>
@@ -5126,46 +5126,46 @@
         <v>29.35378112632661</v>
       </c>
       <c r="L12" t="n">
-        <v>85.54630499914487</v>
+        <v>38.41130222719283</v>
       </c>
       <c r="M12" t="n">
-        <v>124.4254246101256</v>
+        <v>99.39207963512565</v>
       </c>
       <c r="N12" t="n">
+        <v>160.3728570430585</v>
+      </c>
+      <c r="O12" t="n">
         <v>185.4062020180584</v>
-      </c>
-      <c r="O12" t="n">
-        <v>246.3869794259912</v>
       </c>
       <c r="P12" t="n">
         <v>246.3869794259912</v>
       </c>
       <c r="Q12" t="n">
-        <v>246.3869794259912</v>
+        <v>220.5335189571065</v>
       </c>
       <c r="R12" t="n">
-        <v>246.3869794259912</v>
+        <v>220.5335189571065</v>
       </c>
       <c r="S12" t="n">
-        <v>246.3869794259912</v>
+        <v>220.5335189571065</v>
       </c>
       <c r="T12" t="n">
-        <v>246.3869794259912</v>
+        <v>220.5335189571065</v>
       </c>
       <c r="U12" t="n">
-        <v>246.3869794259912</v>
+        <v>220.5335189571065</v>
       </c>
       <c r="V12" t="n">
-        <v>246.3869794259912</v>
+        <v>158.3145847586239</v>
       </c>
       <c r="W12" t="n">
-        <v>246.3869794259912</v>
+        <v>158.3145847586239</v>
       </c>
       <c r="X12" t="n">
-        <v>246.3869794259912</v>
+        <v>158.3145847586239</v>
       </c>
       <c r="Y12" t="n">
-        <v>246.3869794259912</v>
+        <v>96.09565056014125</v>
       </c>
     </row>
     <row r="13">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>266.9894336850146</v>
+        <v>132.1462853592496</v>
       </c>
       <c r="C14" t="n">
-        <v>266.9894336850146</v>
+        <v>64.72471119636714</v>
       </c>
       <c r="D14" t="n">
-        <v>266.9894336850146</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="E14" t="n">
-        <v>266.9894336850146</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="F14" t="n">
-        <v>266.9894336850146</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="G14" t="n">
-        <v>199.5678595221321</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="H14" t="n">
-        <v>132.1462853592496</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="I14" t="n">
-        <v>64.72471119636717</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="J14" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="K14" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="L14" t="n">
         <v>58.85307262284975</v>
       </c>
       <c r="M14" t="n">
-        <v>124.9329574598909</v>
+        <v>124.9329574598908</v>
       </c>
       <c r="N14" t="n">
-        <v>191.012842296932</v>
+        <v>191.0128422969319</v>
       </c>
       <c r="O14" t="n">
-        <v>257.0927271339732</v>
+        <v>257.0927271339731</v>
       </c>
       <c r="P14" t="n">
-        <v>266.9894336850146</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="Q14" t="n">
-        <v>266.9894336850146</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="R14" t="n">
-        <v>266.9894336850146</v>
+        <v>199.567859522132</v>
       </c>
       <c r="S14" t="n">
-        <v>266.9894336850146</v>
+        <v>199.567859522132</v>
       </c>
       <c r="T14" t="n">
-        <v>266.9894336850146</v>
+        <v>199.567859522132</v>
       </c>
       <c r="U14" t="n">
-        <v>266.9894336850146</v>
+        <v>199.567859522132</v>
       </c>
       <c r="V14" t="n">
-        <v>266.9894336850146</v>
+        <v>199.567859522132</v>
       </c>
       <c r="W14" t="n">
-        <v>266.9894336850146</v>
+        <v>199.567859522132</v>
       </c>
       <c r="X14" t="n">
-        <v>266.9894336850146</v>
+        <v>199.567859522132</v>
       </c>
       <c r="Y14" t="n">
-        <v>266.9894336850146</v>
+        <v>199.567859522132</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>199.5678595221321</v>
+        <v>107.4233446369846</v>
       </c>
       <c r="C15" t="n">
-        <v>199.5678595221321</v>
+        <v>107.4233446369846</v>
       </c>
       <c r="D15" t="n">
-        <v>199.5678595221321</v>
+        <v>40.00177047410219</v>
       </c>
       <c r="E15" t="n">
-        <v>199.5678595221321</v>
+        <v>40.00177047410219</v>
       </c>
       <c r="F15" t="n">
-        <v>199.5678595221321</v>
+        <v>40.00177047410219</v>
       </c>
       <c r="G15" t="n">
-        <v>133.0992847188097</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="H15" t="n">
-        <v>65.67771055592721</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="I15" t="n">
-        <v>65.67771055592721</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="J15" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="K15" t="n">
-        <v>5.339788673700292</v>
+        <v>31.16749530344032</v>
       </c>
       <c r="L15" t="n">
-        <v>30.5128169241824</v>
+        <v>97.24738014048141</v>
       </c>
       <c r="M15" t="n">
-        <v>71.59130618399337</v>
+        <v>163.3272649775225</v>
       </c>
       <c r="N15" t="n">
-        <v>134.8296640109324</v>
+        <v>226.5656228044615</v>
       </c>
       <c r="O15" t="n">
-        <v>200.9095488479735</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="P15" t="n">
-        <v>266.9894336850146</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="Q15" t="n">
-        <v>266.9894336850146</v>
+        <v>242.2664929627495</v>
       </c>
       <c r="R15" t="n">
-        <v>266.9894336850146</v>
+        <v>242.2664929627495</v>
       </c>
       <c r="S15" t="n">
-        <v>199.5678595221321</v>
+        <v>174.8449187998671</v>
       </c>
       <c r="T15" t="n">
-        <v>199.5678595221321</v>
+        <v>107.4233446369846</v>
       </c>
       <c r="U15" t="n">
-        <v>199.5678595221321</v>
+        <v>107.4233446369846</v>
       </c>
       <c r="V15" t="n">
-        <v>199.5678595221321</v>
+        <v>107.4233446369846</v>
       </c>
       <c r="W15" t="n">
-        <v>199.5678595221321</v>
+        <v>107.4233446369846</v>
       </c>
       <c r="X15" t="n">
-        <v>199.5678595221321</v>
+        <v>107.4233446369846</v>
       </c>
       <c r="Y15" t="n">
-        <v>199.5678595221321</v>
+        <v>107.4233446369846</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="C16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="D16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="E16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="F16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="G16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="H16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="I16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="J16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="K16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="L16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="M16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="N16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="O16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="P16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="R16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="S16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="T16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="U16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="V16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="W16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="X16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.9894336850145</v>
+        <v>199.5678595221321</v>
       </c>
       <c r="C17" t="n">
-        <v>266.9894336850145</v>
+        <v>132.1462853592496</v>
       </c>
       <c r="D17" t="n">
-        <v>266.9894336850145</v>
+        <v>64.72471119636718</v>
       </c>
       <c r="E17" t="n">
-        <v>266.9894336850145</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="F17" t="n">
-        <v>207.6045111623476</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="G17" t="n">
-        <v>140.1829369994652</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="H17" t="n">
-        <v>72.76136283658275</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="I17" t="n">
         <v>5.339788673700291</v>
@@ -5554,13 +5554,13 @@
         <v>266.9894336850145</v>
       </c>
       <c r="W17" t="n">
-        <v>266.9894336850145</v>
+        <v>199.5678595221321</v>
       </c>
       <c r="X17" t="n">
-        <v>266.9894336850145</v>
+        <v>199.5678595221321</v>
       </c>
       <c r="Y17" t="n">
-        <v>266.9894336850145</v>
+        <v>199.5678595221321</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>266.9894336850145</v>
+        <v>132.1462853592496</v>
       </c>
       <c r="C18" t="n">
-        <v>266.9894336850145</v>
+        <v>132.1462853592496</v>
       </c>
       <c r="D18" t="n">
-        <v>266.9894336850145</v>
+        <v>132.1462853592496</v>
       </c>
       <c r="E18" t="n">
-        <v>266.9894336850145</v>
+        <v>72.76136283658275</v>
       </c>
       <c r="F18" t="n">
-        <v>266.9894336850145</v>
+        <v>72.76136283658275</v>
       </c>
       <c r="G18" t="n">
-        <v>199.5678595221321</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="H18" t="n">
-        <v>132.1462853592496</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="I18" t="n">
-        <v>64.72471119636718</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="J18" t="n">
         <v>5.339788673700291</v>
       </c>
       <c r="K18" t="n">
-        <v>31.16749530344032</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="L18" t="n">
-        <v>42.10972809662684</v>
+        <v>71.4196735107414</v>
       </c>
       <c r="M18" t="n">
-        <v>83.18821735643783</v>
+        <v>137.4995583477825</v>
       </c>
       <c r="N18" t="n">
-        <v>146.4265751833769</v>
+        <v>200.9095488479734</v>
       </c>
       <c r="O18" t="n">
-        <v>200.9095488479734</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="P18" t="n">
         <v>266.9894336850145</v>
@@ -5618,28 +5618,28 @@
         <v>266.9894336850145</v>
       </c>
       <c r="R18" t="n">
-        <v>266.9894336850145</v>
+        <v>199.5678595221321</v>
       </c>
       <c r="S18" t="n">
-        <v>266.9894336850145</v>
+        <v>132.1462853592496</v>
       </c>
       <c r="T18" t="n">
-        <v>266.9894336850145</v>
+        <v>132.1462853592496</v>
       </c>
       <c r="U18" t="n">
-        <v>266.9894336850145</v>
+        <v>132.1462853592496</v>
       </c>
       <c r="V18" t="n">
-        <v>266.9894336850145</v>
+        <v>132.1462853592496</v>
       </c>
       <c r="W18" t="n">
-        <v>266.9894336850145</v>
+        <v>132.1462853592496</v>
       </c>
       <c r="X18" t="n">
-        <v>266.9894336850145</v>
+        <v>132.1462853592496</v>
       </c>
       <c r="Y18" t="n">
-        <v>266.9894336850145</v>
+        <v>132.1462853592496</v>
       </c>
     </row>
     <row r="19">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>132.1462853592496</v>
+        <v>76.42367488726835</v>
       </c>
       <c r="C20" t="n">
-        <v>132.1462853592496</v>
+        <v>76.42367488726835</v>
       </c>
       <c r="D20" t="n">
-        <v>132.1462853592496</v>
+        <v>76.42367488726835</v>
       </c>
       <c r="E20" t="n">
-        <v>64.72471119636714</v>
+        <v>76.42367488726835</v>
       </c>
       <c r="F20" t="n">
-        <v>5.33978867370029</v>
+        <v>9.002100724385887</v>
       </c>
       <c r="G20" t="n">
-        <v>5.33978867370029</v>
+        <v>9.002100724385887</v>
       </c>
       <c r="H20" t="n">
-        <v>5.33978867370029</v>
+        <v>9.002100724385887</v>
       </c>
       <c r="I20" t="n">
-        <v>5.33978867370029</v>
+        <v>9.002100724385887</v>
       </c>
       <c r="J20" t="n">
-        <v>5.33978867370029</v>
+        <v>9.002100724385887</v>
       </c>
       <c r="K20" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="L20" t="n">
         <v>58.85307262284975</v>
       </c>
       <c r="M20" t="n">
-        <v>124.9329574598908</v>
+        <v>124.9329574598909</v>
       </c>
       <c r="N20" t="n">
-        <v>191.0128422969319</v>
+        <v>191.012842296932</v>
       </c>
       <c r="O20" t="n">
         <v>257.0927271339731</v>
@@ -5785,19 +5785,19 @@
         <v>132.1462853592496</v>
       </c>
       <c r="U20" t="n">
-        <v>132.1462853592496</v>
+        <v>76.42367488726835</v>
       </c>
       <c r="V20" t="n">
-        <v>132.1462853592496</v>
+        <v>76.42367488726835</v>
       </c>
       <c r="W20" t="n">
-        <v>132.1462853592496</v>
+        <v>76.42367488726835</v>
       </c>
       <c r="X20" t="n">
-        <v>132.1462853592496</v>
+        <v>76.42367488726835</v>
       </c>
       <c r="Y20" t="n">
-        <v>132.1462853592496</v>
+        <v>76.42367488726835</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="C21" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="D21" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="E21" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="F21" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="G21" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="H21" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="I21" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="J21" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="K21" t="n">
-        <v>31.16749530344032</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="L21" t="n">
-        <v>42.10972809662681</v>
+        <v>16.28202146688677</v>
       </c>
       <c r="M21" t="n">
-        <v>83.18821735643778</v>
+        <v>71.59130618399331</v>
       </c>
       <c r="N21" t="n">
-        <v>146.4265751833768</v>
+        <v>134.8296640109323</v>
       </c>
       <c r="O21" t="n">
-        <v>212.5064600204179</v>
+        <v>200.9095488479734</v>
       </c>
       <c r="P21" t="n">
         <v>266.9894336850145</v>
       </c>
       <c r="Q21" t="n">
-        <v>242.2664929627495</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="R21" t="n">
-        <v>242.2664929627495</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="S21" t="n">
-        <v>174.8449187998671</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="T21" t="n">
-        <v>107.4233446369846</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="U21" t="n">
-        <v>72.76136283658273</v>
+        <v>207.6045111623476</v>
       </c>
       <c r="V21" t="n">
-        <v>5.33978867370029</v>
+        <v>140.1829369994652</v>
       </c>
       <c r="W21" t="n">
-        <v>5.33978867370029</v>
+        <v>72.76136283658275</v>
       </c>
       <c r="X21" t="n">
-        <v>5.33978867370029</v>
+        <v>72.76136283658275</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="C22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="D22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="E22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="F22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="G22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="H22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="I22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="J22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="K22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="L22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="M22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="N22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="O22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="P22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="R22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="S22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="T22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="U22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="V22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="W22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="X22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.33978867370029</v>
+        <v>5.339788673700291</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>216.2657353718508</v>
+        <v>112.2518187828498</v>
       </c>
       <c r="C23" t="n">
-        <v>216.2657353718508</v>
+        <v>112.2518187828498</v>
       </c>
       <c r="D23" t="n">
-        <v>216.2657353718508</v>
+        <v>112.2518187828498</v>
       </c>
       <c r="E23" t="n">
-        <v>216.2657353718508</v>
+        <v>112.2518187828498</v>
       </c>
       <c r="F23" t="n">
-        <v>216.2657353718508</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="G23" t="n">
-        <v>216.2657353718508</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="H23" t="n">
-        <v>112.2518187828498</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="I23" t="n">
         <v>8.237902193848875</v>
@@ -6010,31 +6010,31 @@
         <v>347.2186410920414</v>
       </c>
       <c r="Q23" t="n">
-        <v>347.2186410920414</v>
+        <v>320.2796519608517</v>
       </c>
       <c r="R23" t="n">
-        <v>347.2186410920414</v>
+        <v>216.2657353718508</v>
       </c>
       <c r="S23" t="n">
-        <v>347.2186410920414</v>
+        <v>216.2657353718508</v>
       </c>
       <c r="T23" t="n">
-        <v>347.2186410920414</v>
+        <v>216.2657353718508</v>
       </c>
       <c r="U23" t="n">
-        <v>347.2186410920414</v>
+        <v>216.2657353718508</v>
       </c>
       <c r="V23" t="n">
-        <v>347.2186410920414</v>
+        <v>112.2518187828498</v>
       </c>
       <c r="W23" t="n">
-        <v>243.2047245030404</v>
+        <v>112.2518187828498</v>
       </c>
       <c r="X23" t="n">
-        <v>243.2047245030404</v>
+        <v>112.2518187828498</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.2657353718508</v>
+        <v>112.2518187828498</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>112.2518187828498</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="C24" t="n">
-        <v>112.2518187828498</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="D24" t="n">
-        <v>112.2518187828498</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="E24" t="n">
-        <v>112.2518187828498</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="F24" t="n">
-        <v>112.2518187828498</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="G24" t="n">
-        <v>112.2518187828498</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2518187828498</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="I24" t="n">
         <v>8.237902193848875</v>
@@ -6074,10 +6074,10 @@
         <v>34.0656088235889</v>
       </c>
       <c r="L24" t="n">
-        <v>45.00784161677539</v>
+        <v>70.72191044189805</v>
       </c>
       <c r="M24" t="n">
-        <v>146.9518812656552</v>
+        <v>172.6659500907779</v>
       </c>
       <c r="N24" t="n">
         <v>235.9043079177169</v>
@@ -6089,31 +6089,31 @@
         <v>411.8951096924437</v>
       </c>
       <c r="Q24" t="n">
-        <v>411.8951096924437</v>
+        <v>387.1721689701788</v>
       </c>
       <c r="R24" t="n">
-        <v>411.8951096924437</v>
+        <v>283.1582523811779</v>
       </c>
       <c r="S24" t="n">
-        <v>411.8951096924437</v>
+        <v>179.1443357921769</v>
       </c>
       <c r="T24" t="n">
-        <v>411.8951096924437</v>
+        <v>75.130419203176</v>
       </c>
       <c r="U24" t="n">
-        <v>411.8951096924437</v>
+        <v>75.130419203176</v>
       </c>
       <c r="V24" t="n">
-        <v>411.8951096924437</v>
+        <v>75.130419203176</v>
       </c>
       <c r="W24" t="n">
-        <v>307.8811931034428</v>
+        <v>75.130419203176</v>
       </c>
       <c r="X24" t="n">
-        <v>203.8672765144419</v>
+        <v>75.130419203176</v>
       </c>
       <c r="Y24" t="n">
-        <v>112.2518187828498</v>
+        <v>8.237902193848875</v>
       </c>
     </row>
     <row r="25">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>67.18451176133168</v>
+        <v>347.2186410920414</v>
       </c>
       <c r="C26" t="n">
-        <v>67.18451176133168</v>
+        <v>347.2186410920414</v>
       </c>
       <c r="D26" t="n">
-        <v>67.18451176133168</v>
+        <v>347.2186410920414</v>
       </c>
       <c r="E26" t="n">
-        <v>67.18451176133168</v>
+        <v>243.2047245030404</v>
       </c>
       <c r="F26" t="n">
-        <v>67.18451176133168</v>
+        <v>139.1908079140395</v>
       </c>
       <c r="G26" t="n">
-        <v>8.237902193848875</v>
+        <v>35.17689132503857</v>
       </c>
       <c r="H26" t="n">
         <v>8.237902193848875</v>
@@ -6247,31 +6247,31 @@
         <v>347.2186410920414</v>
       </c>
       <c r="Q26" t="n">
-        <v>275.2123449393335</v>
+        <v>347.2186410920414</v>
       </c>
       <c r="R26" t="n">
-        <v>171.1984283503326</v>
+        <v>347.2186410920414</v>
       </c>
       <c r="S26" t="n">
-        <v>67.18451176133168</v>
+        <v>347.2186410920414</v>
       </c>
       <c r="T26" t="n">
-        <v>67.18451176133168</v>
+        <v>347.2186410920414</v>
       </c>
       <c r="U26" t="n">
-        <v>67.18451176133168</v>
+        <v>347.2186410920414</v>
       </c>
       <c r="V26" t="n">
-        <v>67.18451176133168</v>
+        <v>347.2186410920414</v>
       </c>
       <c r="W26" t="n">
-        <v>67.18451176133168</v>
+        <v>347.2186410920414</v>
       </c>
       <c r="X26" t="n">
-        <v>67.18451176133168</v>
+        <v>347.2186410920414</v>
       </c>
       <c r="Y26" t="n">
-        <v>67.18451176133168</v>
+        <v>347.2186410920414</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>307.8811931034428</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="C27" t="n">
-        <v>307.8811931034428</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="D27" t="n">
-        <v>307.8811931034428</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="E27" t="n">
-        <v>203.8672765144419</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="F27" t="n">
-        <v>203.8672765144419</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="G27" t="n">
-        <v>99.85335992544093</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="H27" t="n">
         <v>8.237902193848875</v>
@@ -6311,10 +6311,10 @@
         <v>34.0656088235889</v>
       </c>
       <c r="L27" t="n">
-        <v>136.0096484724687</v>
+        <v>106.0629907458043</v>
       </c>
       <c r="M27" t="n">
-        <v>237.9536881213485</v>
+        <v>208.0070303946841</v>
       </c>
       <c r="N27" t="n">
         <v>309.9510700435639</v>
@@ -6326,31 +6326,31 @@
         <v>411.8951096924437</v>
       </c>
       <c r="Q27" t="n">
-        <v>411.8951096924437</v>
+        <v>387.1721689701788</v>
       </c>
       <c r="R27" t="n">
-        <v>411.8951096924437</v>
+        <v>283.1582523811779</v>
       </c>
       <c r="S27" t="n">
-        <v>411.8951096924437</v>
+        <v>179.1443357921769</v>
       </c>
       <c r="T27" t="n">
-        <v>411.8951096924437</v>
+        <v>75.130419203176</v>
       </c>
       <c r="U27" t="n">
-        <v>411.8951096924437</v>
+        <v>75.130419203176</v>
       </c>
       <c r="V27" t="n">
-        <v>307.8811931034428</v>
+        <v>75.130419203176</v>
       </c>
       <c r="W27" t="n">
-        <v>307.8811931034428</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="X27" t="n">
-        <v>307.8811931034428</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="Y27" t="n">
-        <v>307.8811931034428</v>
+        <v>8.237902193848875</v>
       </c>
     </row>
     <row r="28">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>139.1908079140395</v>
+        <v>243.2047245030404</v>
       </c>
       <c r="C29" t="n">
-        <v>35.17689132503857</v>
+        <v>243.2047245030404</v>
       </c>
       <c r="D29" t="n">
-        <v>35.17689132503857</v>
+        <v>243.2047245030404</v>
       </c>
       <c r="E29" t="n">
-        <v>8.237902193848875</v>
+        <v>216.2657353718508</v>
       </c>
       <c r="F29" t="n">
-        <v>8.237902193848875</v>
+        <v>112.2518187828498</v>
       </c>
       <c r="G29" t="n">
         <v>8.237902193848875</v>
@@ -6496,16 +6496,16 @@
         <v>347.2186410920414</v>
       </c>
       <c r="U29" t="n">
-        <v>347.2186410920414</v>
+        <v>243.2047245030404</v>
       </c>
       <c r="V29" t="n">
-        <v>347.2186410920414</v>
+        <v>243.2047245030404</v>
       </c>
       <c r="W29" t="n">
-        <v>347.2186410920414</v>
+        <v>243.2047245030404</v>
       </c>
       <c r="X29" t="n">
-        <v>347.2186410920414</v>
+        <v>243.2047245030404</v>
       </c>
       <c r="Y29" t="n">
         <v>243.2047245030404</v>
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>216.2657353718508</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="C30" t="n">
-        <v>216.2657353718508</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="D30" t="n">
-        <v>216.2657353718508</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="E30" t="n">
-        <v>216.2657353718508</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="F30" t="n">
-        <v>112.2518187828498</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="G30" t="n">
         <v>8.237902193848875</v>
@@ -6554,7 +6554,7 @@
         <v>146.9518812656552</v>
       </c>
       <c r="N30" t="n">
-        <v>235.9043079177169</v>
+        <v>248.895920914535</v>
       </c>
       <c r="O30" t="n">
         <v>337.8483475665967</v>
@@ -6572,22 +6572,22 @@
         <v>411.8951096924437</v>
       </c>
       <c r="T30" t="n">
-        <v>307.8811931034428</v>
+        <v>411.8951096924437</v>
       </c>
       <c r="U30" t="n">
         <v>307.8811931034428</v>
       </c>
       <c r="V30" t="n">
-        <v>307.8811931034428</v>
+        <v>203.8672765144419</v>
       </c>
       <c r="W30" t="n">
-        <v>307.8811931034428</v>
+        <v>99.85335992544093</v>
       </c>
       <c r="X30" t="n">
-        <v>307.8811931034428</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="Y30" t="n">
-        <v>307.8811931034428</v>
+        <v>8.237902193848875</v>
       </c>
     </row>
     <row r="31">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.237902193848875</v>
+        <v>112.2518187828498</v>
       </c>
       <c r="C32" t="n">
-        <v>8.237902193848875</v>
+        <v>112.2518187828498</v>
       </c>
       <c r="D32" t="n">
-        <v>8.237902193848875</v>
+        <v>112.2518187828498</v>
       </c>
       <c r="E32" t="n">
         <v>8.237902193848875</v>
@@ -6733,10 +6733,10 @@
         <v>347.2186410920414</v>
       </c>
       <c r="U32" t="n">
-        <v>347.2186410920414</v>
+        <v>243.2047245030404</v>
       </c>
       <c r="V32" t="n">
-        <v>320.2796519608517</v>
+        <v>216.2657353718508</v>
       </c>
       <c r="W32" t="n">
         <v>216.2657353718508</v>
@@ -6745,7 +6745,7 @@
         <v>112.2518187828498</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.237902193848875</v>
+        <v>112.2518187828498</v>
       </c>
     </row>
     <row r="33">
@@ -6764,16 +6764,16 @@
         <v>216.2657353718508</v>
       </c>
       <c r="E33" t="n">
-        <v>216.2657353718508</v>
+        <v>112.2518187828498</v>
       </c>
       <c r="F33" t="n">
-        <v>216.2657353718508</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="G33" t="n">
-        <v>216.2657353718508</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2518187828498</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="I33" t="n">
         <v>8.237902193848875</v>
@@ -6782,49 +6782,49 @@
         <v>8.237902193848875</v>
       </c>
       <c r="K33" t="n">
-        <v>34.0656088235889</v>
+        <v>8.237902193848875</v>
       </c>
       <c r="L33" t="n">
-        <v>45.00784161677539</v>
+        <v>110.1819418427287</v>
       </c>
       <c r="M33" t="n">
-        <v>133.9602682688371</v>
+        <v>208.0070303946841</v>
       </c>
       <c r="N33" t="n">
-        <v>235.9043079177169</v>
+        <v>309.9510700435639</v>
       </c>
       <c r="O33" t="n">
-        <v>337.8483475665967</v>
+        <v>411.8951096924437</v>
       </c>
       <c r="P33" t="n">
         <v>411.8951096924437</v>
       </c>
       <c r="Q33" t="n">
-        <v>411.8951096924437</v>
+        <v>387.1721689701788</v>
       </c>
       <c r="R33" t="n">
-        <v>411.8951096924437</v>
+        <v>387.1721689701788</v>
       </c>
       <c r="S33" t="n">
-        <v>411.8951096924437</v>
+        <v>387.1721689701788</v>
       </c>
       <c r="T33" t="n">
-        <v>411.8951096924437</v>
+        <v>387.1721689701788</v>
       </c>
       <c r="U33" t="n">
-        <v>411.8951096924437</v>
+        <v>387.1721689701788</v>
       </c>
       <c r="V33" t="n">
-        <v>411.8951096924437</v>
+        <v>283.1582523811779</v>
       </c>
       <c r="W33" t="n">
-        <v>320.2796519608517</v>
+        <v>283.1582523811779</v>
       </c>
       <c r="X33" t="n">
-        <v>320.2796519608517</v>
+        <v>216.2657353718508</v>
       </c>
       <c r="Y33" t="n">
-        <v>320.2796519608517</v>
+        <v>216.2657353718508</v>
       </c>
     </row>
     <row r="34">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.450376802955</v>
+        <v>64.82616267567283</v>
       </c>
       <c r="C35" t="n">
-        <v>137.450376802955</v>
+        <v>64.82616267567283</v>
       </c>
       <c r="D35" t="n">
-        <v>137.450376802955</v>
+        <v>64.82616267567283</v>
       </c>
       <c r="E35" t="n">
-        <v>137.450376802955</v>
+        <v>64.82616267567283</v>
       </c>
       <c r="F35" t="n">
-        <v>137.450376802955</v>
+        <v>64.82616267567283</v>
       </c>
       <c r="G35" t="n">
-        <v>64.82616267567286</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="H35" t="n">
-        <v>64.82616267567286</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="I35" t="n">
-        <v>64.82616267567286</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="J35" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="K35" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="L35" t="n">
-        <v>59.2651217080302</v>
+        <v>59.26512170803023</v>
       </c>
       <c r="M35" t="n">
-        <v>130.4441139741794</v>
+        <v>130.4441139741797</v>
       </c>
       <c r="N35" t="n">
-        <v>201.6231062403286</v>
+        <v>201.6231062403292</v>
       </c>
       <c r="O35" t="n">
-        <v>272.8020985064778</v>
+        <v>272.8020985064787</v>
       </c>
       <c r="P35" t="n">
-        <v>282.6988050575192</v>
+        <v>282.6988050575201</v>
       </c>
       <c r="Q35" t="n">
-        <v>282.6988050575192</v>
+        <v>282.6988050575201</v>
       </c>
       <c r="R35" t="n">
-        <v>282.6988050575192</v>
+        <v>210.0745909302377</v>
       </c>
       <c r="S35" t="n">
-        <v>282.6988050575192</v>
+        <v>137.4503768029552</v>
       </c>
       <c r="T35" t="n">
-        <v>282.6988050575192</v>
+        <v>137.4503768029552</v>
       </c>
       <c r="U35" t="n">
-        <v>282.6988050575192</v>
+        <v>64.82616267567283</v>
       </c>
       <c r="V35" t="n">
-        <v>282.6988050575192</v>
+        <v>64.82616267567283</v>
       </c>
       <c r="W35" t="n">
-        <v>282.6988050575192</v>
+        <v>64.82616267567283</v>
       </c>
       <c r="X35" t="n">
-        <v>210.0745909302371</v>
+        <v>64.82616267567283</v>
       </c>
       <c r="Y35" t="n">
-        <v>137.450376802955</v>
+        <v>64.82616267567283</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>66.08975964110766</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="C36" t="n">
-        <v>66.08975964110766</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="D36" t="n">
-        <v>66.08975964110766</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="E36" t="n">
-        <v>66.08975964110766</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="F36" t="n">
-        <v>66.08975964110766</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="G36" t="n">
-        <v>66.08975964110766</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="H36" t="n">
-        <v>66.08975964110766</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="I36" t="n">
-        <v>66.08975964110766</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="J36" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="K36" t="n">
-        <v>31.57954438862077</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="L36" t="n">
-        <v>42.52177718180726</v>
+        <v>76.93083002503025</v>
       </c>
       <c r="M36" t="n">
-        <v>83.60026644161823</v>
+        <v>148.1098222911797</v>
       </c>
       <c r="N36" t="n">
-        <v>146.8386242685573</v>
+        <v>216.4128956778889</v>
       </c>
       <c r="O36" t="n">
-        <v>216.4128956778879</v>
+        <v>287.5918879440383</v>
       </c>
       <c r="P36" t="n">
-        <v>287.5918879440371</v>
+        <v>287.5918879440383</v>
       </c>
       <c r="Q36" t="n">
-        <v>287.5918879440371</v>
+        <v>287.5918879440383</v>
       </c>
       <c r="R36" t="n">
-        <v>287.5918879440371</v>
+        <v>287.5918879440383</v>
       </c>
       <c r="S36" t="n">
-        <v>287.5918879440371</v>
+        <v>287.5918879440383</v>
       </c>
       <c r="T36" t="n">
-        <v>287.5918879440371</v>
+        <v>287.5918879440383</v>
       </c>
       <c r="U36" t="n">
-        <v>287.5918879440371</v>
+        <v>214.9676738167559</v>
       </c>
       <c r="V36" t="n">
-        <v>287.5918879440371</v>
+        <v>142.3434596894735</v>
       </c>
       <c r="W36" t="n">
-        <v>214.967673816755</v>
+        <v>69.71924556219108</v>
       </c>
       <c r="X36" t="n">
-        <v>211.3381878956719</v>
+        <v>69.71924556219108</v>
       </c>
       <c r="Y36" t="n">
-        <v>138.7139737683898</v>
+        <v>5.751837758880766</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="C37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="D37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="E37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="F37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="G37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="H37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="I37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="J37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="K37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="L37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="M37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="N37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="O37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="P37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="R37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="S37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="T37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="U37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="V37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="W37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="X37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.751837758880742</v>
+        <v>5.751837758880766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.339788673700292</v>
+        <v>140.1829369994652</v>
       </c>
       <c r="C38" t="n">
-        <v>5.339788673700292</v>
+        <v>140.1829369994652</v>
       </c>
       <c r="D38" t="n">
-        <v>5.339788673700292</v>
+        <v>140.1829369994652</v>
       </c>
       <c r="E38" t="n">
-        <v>5.339788673700292</v>
+        <v>140.1829369994652</v>
       </c>
       <c r="F38" t="n">
-        <v>5.339788673700292</v>
+        <v>72.76136283658273</v>
       </c>
       <c r="G38" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="H38" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="I38" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="J38" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="K38" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="L38" t="n">
         <v>58.85307262284975</v>
       </c>
       <c r="M38" t="n">
-        <v>124.9329574598909</v>
+        <v>124.9329574598908</v>
       </c>
       <c r="N38" t="n">
-        <v>191.012842296932</v>
+        <v>191.0128422969319</v>
       </c>
       <c r="O38" t="n">
-        <v>257.0927271339731</v>
+        <v>257.092727133973</v>
       </c>
       <c r="P38" t="n">
-        <v>266.9894336850145</v>
+        <v>266.9894336850144</v>
       </c>
       <c r="Q38" t="n">
-        <v>266.9894336850145</v>
+        <v>266.9894336850144</v>
       </c>
       <c r="R38" t="n">
-        <v>199.567859522132</v>
+        <v>266.9894336850144</v>
       </c>
       <c r="S38" t="n">
-        <v>199.567859522132</v>
+        <v>266.9894336850144</v>
       </c>
       <c r="T38" t="n">
-        <v>199.567859522132</v>
+        <v>266.9894336850144</v>
       </c>
       <c r="U38" t="n">
-        <v>199.567859522132</v>
+        <v>266.9894336850144</v>
       </c>
       <c r="V38" t="n">
-        <v>199.567859522132</v>
+        <v>266.9894336850144</v>
       </c>
       <c r="W38" t="n">
-        <v>132.1462853592495</v>
+        <v>207.6045111623476</v>
       </c>
       <c r="X38" t="n">
-        <v>64.72471119636705</v>
+        <v>207.6045111623476</v>
       </c>
       <c r="Y38" t="n">
-        <v>5.339788673700292</v>
+        <v>140.1829369994652</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>174.8449187998672</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="C39" t="n">
-        <v>107.4233446369847</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="D39" t="n">
-        <v>107.4233446369847</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="E39" t="n">
-        <v>40.00177047410222</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="F39" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="G39" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="H39" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="I39" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="J39" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="K39" t="n">
-        <v>31.16749530344033</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="L39" t="n">
-        <v>71.23840944368294</v>
+        <v>71.41967351074138</v>
       </c>
       <c r="M39" t="n">
-        <v>112.3168987034939</v>
+        <v>137.4995583477825</v>
       </c>
       <c r="N39" t="n">
-        <v>175.5552565304329</v>
+        <v>203.5794431848236</v>
       </c>
       <c r="O39" t="n">
-        <v>200.9095488479735</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="P39" t="n">
-        <v>266.9894336850146</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="Q39" t="n">
-        <v>242.2664929627497</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="R39" t="n">
-        <v>242.2664929627497</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="S39" t="n">
-        <v>242.2664929627497</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="T39" t="n">
-        <v>242.2664929627497</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="U39" t="n">
-        <v>242.2664929627497</v>
+        <v>207.6045111623476</v>
       </c>
       <c r="V39" t="n">
-        <v>242.2664929627497</v>
+        <v>140.1829369994652</v>
       </c>
       <c r="W39" t="n">
-        <v>174.8449187998672</v>
+        <v>72.76136283658273</v>
       </c>
       <c r="X39" t="n">
-        <v>174.8449187998672</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="Y39" t="n">
-        <v>174.8449187998672</v>
+        <v>5.33978867370029</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="C40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="D40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="E40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="F40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="G40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="H40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="I40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="J40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="K40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="L40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="M40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="N40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="O40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="P40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="R40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="S40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="T40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="U40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="V40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="W40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="X40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>76.42367488726836</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="C41" t="n">
-        <v>76.42367488726836</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="D41" t="n">
-        <v>76.42367488726836</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="E41" t="n">
-        <v>76.42367488726836</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="F41" t="n">
-        <v>9.002100724385889</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="G41" t="n">
-        <v>9.002100724385889</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="H41" t="n">
-        <v>9.002100724385889</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="I41" t="n">
-        <v>9.002100724385889</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="J41" t="n">
-        <v>9.002100724385889</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="K41" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="L41" t="n">
-        <v>58.85307262284975</v>
+        <v>58.85307262284977</v>
       </c>
       <c r="M41" t="n">
         <v>124.9329574598909</v>
@@ -7426,37 +7426,37 @@
         <v>191.012842296932</v>
       </c>
       <c r="O41" t="n">
-        <v>257.0927271339732</v>
+        <v>257.0927271339731</v>
       </c>
       <c r="P41" t="n">
-        <v>266.9894336850146</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="Q41" t="n">
-        <v>211.2668232130333</v>
+        <v>199.567859522132</v>
       </c>
       <c r="R41" t="n">
-        <v>211.2668232130333</v>
+        <v>199.567859522132</v>
       </c>
       <c r="S41" t="n">
-        <v>211.2668232130333</v>
+        <v>199.567859522132</v>
       </c>
       <c r="T41" t="n">
-        <v>211.2668232130333</v>
+        <v>140.1829369994652</v>
       </c>
       <c r="U41" t="n">
-        <v>211.2668232130333</v>
+        <v>72.76136283658273</v>
       </c>
       <c r="V41" t="n">
-        <v>211.2668232130333</v>
+        <v>72.76136283658273</v>
       </c>
       <c r="W41" t="n">
-        <v>211.2668232130333</v>
+        <v>72.76136283658273</v>
       </c>
       <c r="X41" t="n">
-        <v>211.2668232130333</v>
+        <v>72.76136283658273</v>
       </c>
       <c r="Y41" t="n">
-        <v>143.8452490501508</v>
+        <v>5.33978867370029</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>140.1829369994653</v>
+        <v>72.76136283658273</v>
       </c>
       <c r="C42" t="n">
-        <v>72.76136283658278</v>
+        <v>72.76136283658273</v>
       </c>
       <c r="D42" t="n">
-        <v>72.76136283658278</v>
+        <v>72.76136283658273</v>
       </c>
       <c r="E42" t="n">
-        <v>5.339788673700292</v>
+        <v>72.76136283658273</v>
       </c>
       <c r="F42" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="G42" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="H42" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="I42" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="J42" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="K42" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="L42" t="n">
-        <v>30.5128169241824</v>
+        <v>16.28202146688677</v>
       </c>
       <c r="M42" t="n">
-        <v>71.59130618399337</v>
+        <v>82.36190630392787</v>
       </c>
       <c r="N42" t="n">
-        <v>134.8296640109324</v>
+        <v>145.6002641308669</v>
       </c>
       <c r="O42" t="n">
-        <v>200.9095488479735</v>
+        <v>211.680148967908</v>
       </c>
       <c r="P42" t="n">
-        <v>266.9894336850146</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="Q42" t="n">
-        <v>266.9894336850146</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="R42" t="n">
-        <v>266.9894336850146</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="S42" t="n">
-        <v>266.9894336850146</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="T42" t="n">
-        <v>266.9894336850146</v>
+        <v>207.6045111623476</v>
       </c>
       <c r="U42" t="n">
-        <v>266.9894336850146</v>
+        <v>207.6045111623476</v>
       </c>
       <c r="V42" t="n">
-        <v>266.9894336850146</v>
+        <v>207.6045111623476</v>
       </c>
       <c r="W42" t="n">
-        <v>207.6045111623477</v>
+        <v>140.1829369994652</v>
       </c>
       <c r="X42" t="n">
-        <v>207.6045111623477</v>
+        <v>72.76136283658273</v>
       </c>
       <c r="Y42" t="n">
-        <v>140.1829369994653</v>
+        <v>72.76136283658273</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="C43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="D43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="E43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="F43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="G43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="H43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="I43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="J43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="K43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="L43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="M43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="N43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="O43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="P43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="R43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="S43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="T43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="U43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="V43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="W43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="X43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.339788673700292</v>
+        <v>5.33978867370029</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>140.1829369994653</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="C44" t="n">
-        <v>140.1829369994653</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="D44" t="n">
-        <v>140.1829369994653</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="E44" t="n">
-        <v>140.1829369994653</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="F44" t="n">
-        <v>72.76136283658278</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="G44" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="H44" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="I44" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="J44" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="K44" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="L44" t="n">
         <v>58.85307262284975</v>
       </c>
       <c r="M44" t="n">
-        <v>124.932957459891</v>
+        <v>124.9329574598908</v>
       </c>
       <c r="N44" t="n">
-        <v>191.0128422969321</v>
+        <v>191.012842296932</v>
       </c>
       <c r="O44" t="n">
-        <v>257.0927271339732</v>
+        <v>257.0927271339731</v>
       </c>
       <c r="P44" t="n">
-        <v>266.9894336850146</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="Q44" t="n">
-        <v>266.9894336850146</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="R44" t="n">
-        <v>207.6045111623477</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="S44" t="n">
-        <v>207.6045111623477</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="T44" t="n">
-        <v>207.6045111623477</v>
+        <v>199.5678595221321</v>
       </c>
       <c r="U44" t="n">
-        <v>207.6045111623477</v>
+        <v>199.5678595221321</v>
       </c>
       <c r="V44" t="n">
-        <v>207.6045111623477</v>
+        <v>140.1829369994652</v>
       </c>
       <c r="W44" t="n">
-        <v>207.6045111623477</v>
+        <v>140.1829369994652</v>
       </c>
       <c r="X44" t="n">
-        <v>207.6045111623477</v>
+        <v>140.1829369994652</v>
       </c>
       <c r="Y44" t="n">
-        <v>140.1829369994653</v>
+        <v>72.76136283658275</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>107.4233446369847</v>
+        <v>65.67771055592721</v>
       </c>
       <c r="C45" t="n">
-        <v>107.4233446369847</v>
+        <v>65.67771055592721</v>
       </c>
       <c r="D45" t="n">
-        <v>107.4233446369847</v>
+        <v>65.67771055592721</v>
       </c>
       <c r="E45" t="n">
-        <v>107.4233446369847</v>
+        <v>65.67771055592721</v>
       </c>
       <c r="F45" t="n">
-        <v>40.00177047410222</v>
+        <v>65.67771055592721</v>
       </c>
       <c r="G45" t="n">
-        <v>40.00177047410222</v>
+        <v>65.67771055592721</v>
       </c>
       <c r="H45" t="n">
-        <v>40.00177047410222</v>
+        <v>65.67771055592721</v>
       </c>
       <c r="I45" t="n">
-        <v>40.00177047410222</v>
+        <v>65.67771055592721</v>
       </c>
       <c r="J45" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="K45" t="n">
-        <v>31.16749530344033</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="L45" t="n">
-        <v>71.59130618399335</v>
+        <v>16.28202146688677</v>
       </c>
       <c r="M45" t="n">
-        <v>137.6711910210345</v>
+        <v>71.59130618399331</v>
       </c>
       <c r="N45" t="n">
-        <v>200.9095488479735</v>
+        <v>134.8296640109323</v>
       </c>
       <c r="O45" t="n">
-        <v>266.9894336850146</v>
+        <v>200.9095488479734</v>
       </c>
       <c r="P45" t="n">
-        <v>266.9894336850146</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="Q45" t="n">
-        <v>242.2664929627497</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="R45" t="n">
-        <v>242.2664929627497</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="S45" t="n">
-        <v>242.2664929627497</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="T45" t="n">
-        <v>174.8449187998672</v>
+        <v>266.9894336850145</v>
       </c>
       <c r="U45" t="n">
-        <v>174.8449187998672</v>
+        <v>199.5678595221321</v>
       </c>
       <c r="V45" t="n">
-        <v>174.8449187998672</v>
+        <v>133.0992847188097</v>
       </c>
       <c r="W45" t="n">
-        <v>107.4233446369847</v>
+        <v>65.67771055592721</v>
       </c>
       <c r="X45" t="n">
-        <v>107.4233446369847</v>
+        <v>65.67771055592721</v>
       </c>
       <c r="Y45" t="n">
-        <v>107.4233446369847</v>
+        <v>65.67771055592721</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="C46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="D46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="E46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="F46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="G46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="H46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="I46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="J46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="K46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="L46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="M46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="N46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="O46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="P46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="R46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="S46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="T46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="U46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="V46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="W46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="X46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.339788673700292</v>
+        <v>5.339788673700291</v>
       </c>
     </row>
   </sheetData>
@@ -8075,7 +8075,7 @@
         <v>50.30088672752632</v>
       </c>
       <c r="P3" t="n">
-        <v>68.93110769910051</v>
+        <v>68.93110769910052</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8774,19 +8774,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>47.61111391106266</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>22.32490686560821</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>38.07245466631096</v>
+        <v>1.761916855267632</v>
       </c>
       <c r="P12" t="n">
-        <v>9.67989468006914</v>
+        <v>71.27663953656696</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -9008,22 +9008,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>42.67236906797748</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>14.37454086595517</v>
+        <v>55.69459802409555</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>25.25393492649506</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>41.13696214090965</v>
+        <v>15.22173592223473</v>
       </c>
       <c r="P15" t="n">
-        <v>74.75296904961002</v>
+        <v>8.005610628356379</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9245,22 +9245,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>68.76096162327045</v>
+        <v>42.67236906797748</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>55.69459802409554</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>25.25393492649505</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.1733663366180593</v>
       </c>
       <c r="O18" t="n">
-        <v>29.42291045157167</v>
+        <v>41.13696214090962</v>
       </c>
       <c r="P18" t="n">
-        <v>74.75296904960999</v>
+        <v>8.005610628356351</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9482,22 +9482,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>68.76096162327045</v>
+        <v>42.67236906797748</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>14.37454086595511</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>41.1369621409096</v>
+        <v>41.13696214090965</v>
       </c>
       <c r="P21" t="n">
-        <v>63.03891736027215</v>
+        <v>74.75296904961002</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9722,13 +9722,13 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>25.97380689406329</v>
       </c>
       <c r="M24" t="n">
         <v>61.48035392835237</v>
       </c>
       <c r="N24" t="n">
-        <v>25.9738068940633</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>77.36338114276691</v>
@@ -9959,13 +9959,13 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>91.92101702595286</v>
+        <v>61.67186780709987</v>
       </c>
       <c r="M27" t="n">
         <v>61.48035392835237</v>
       </c>
       <c r="N27" t="n">
-        <v>8.847499086137731</v>
+        <v>39.09664830499071</v>
       </c>
       <c r="O27" t="n">
         <v>77.36338114276691</v>
@@ -10202,10 +10202,10 @@
         <v>61.48035392835237</v>
       </c>
       <c r="N30" t="n">
-        <v>25.9738068940633</v>
+        <v>39.09664830499071</v>
       </c>
       <c r="O30" t="n">
-        <v>77.36338114276691</v>
+        <v>64.2405397318395</v>
       </c>
       <c r="P30" t="n">
         <v>82.80031984638366</v>
@@ -10430,13 +10430,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>68.76096162327045</v>
+        <v>42.67236906797748</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>91.92101702595286</v>
       </c>
       <c r="M33" t="n">
-        <v>48.35751251742496</v>
+        <v>57.31979726479234</v>
       </c>
       <c r="N33" t="n">
         <v>39.09664830499071</v>
@@ -10445,7 +10445,7 @@
         <v>77.36338114276691</v>
       </c>
       <c r="P33" t="n">
-        <v>82.80031984638366</v>
+        <v>8.005610628356379</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10594,13 +10594,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>85.79771327103481</v>
+        <v>85.79771327103511</v>
       </c>
       <c r="N35" t="n">
-        <v>79.20677232984639</v>
+        <v>79.20677232984669</v>
       </c>
       <c r="O35" t="n">
-        <v>98.49928264943219</v>
+        <v>98.49928264943249</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10667,22 +10667,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>42.67236906797748</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>60.84521158885151</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>30.40454849125102</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>5.115874302798076</v>
       </c>
       <c r="O36" t="n">
-        <v>44.66664554726275</v>
+        <v>46.28757570566557</v>
       </c>
       <c r="P36" t="n">
-        <v>79.90358261436566</v>
+        <v>8.005610628356379</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10831,13 +10831,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>80.64709970627918</v>
+        <v>80.64709970627915</v>
       </c>
       <c r="N38" t="n">
-        <v>74.05615876509076</v>
+        <v>74.05615876509073</v>
       </c>
       <c r="O38" t="n">
-        <v>93.34866908467656</v>
+        <v>93.34866908467653</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10904,22 +10904,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>42.67236906797748</v>
       </c>
       <c r="L39" t="n">
-        <v>29.42291045157184</v>
+        <v>55.69459802409555</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>25.25393492649506</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>2.870229303133399</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>38.44009917439429</v>
       </c>
       <c r="P39" t="n">
-        <v>74.75296904961002</v>
+        <v>8.005610628356379</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11144,19 +11144,19 @@
         <v>42.67236906797748</v>
       </c>
       <c r="L42" t="n">
-        <v>14.37454086595517</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>25.25393492649506</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>41.13696214090965</v>
+        <v>41.1369621409096</v>
       </c>
       <c r="P42" t="n">
-        <v>74.75296904961002</v>
+        <v>63.87357498907001</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11305,7 +11305,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>80.64709970627929</v>
+        <v>80.64709970627916</v>
       </c>
       <c r="N44" t="n">
         <v>74.05615876509074</v>
@@ -11378,13 +11378,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>68.76096162327045</v>
+        <v>42.67236906797748</v>
       </c>
       <c r="L45" t="n">
-        <v>29.77937180542075</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>25.25393492649511</v>
+        <v>14.37454086595511</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>41.13696214090965</v>
       </c>
       <c r="P45" t="n">
-        <v>8.005610628356379</v>
+        <v>74.75296904961002</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22743,7 +22743,7 @@
         <v>56.73884728383211</v>
       </c>
       <c r="O4" t="n">
-        <v>81.28703038709219</v>
+        <v>81.2870303870922</v>
       </c>
       <c r="P4" t="n">
         <v>98.88580198047258</v>
@@ -23275,10 +23275,10 @@
         <v>421.7672139666693</v>
       </c>
       <c r="H11" t="n">
-        <v>345.4265519153627</v>
+        <v>283.8298070588649</v>
       </c>
       <c r="I11" t="n">
-        <v>237.3486502709003</v>
+        <v>175.7519054144025</v>
       </c>
       <c r="J11" t="n">
         <v>66.08902349061319</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.45911622887634</v>
+        <v>18.80144821577088</v>
       </c>
       <c r="R11" t="n">
-        <v>122.096333399246</v>
+        <v>183.6930782557438</v>
       </c>
       <c r="S11" t="n">
-        <v>164.2512193317903</v>
+        <v>225.8479641882881</v>
       </c>
       <c r="T11" t="n">
-        <v>163.2797696949441</v>
+        <v>217.5341825645473</v>
       </c>
       <c r="U11" t="n">
         <v>248.7557649281325</v>
       </c>
       <c r="V11" t="n">
-        <v>313.3044420010231</v>
+        <v>251.7076971445253</v>
       </c>
       <c r="W11" t="n">
         <v>325.3917254792934</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>188.0127573810344</v>
+        <v>126.4160125245366</v>
       </c>
       <c r="C12" t="n">
-        <v>203.8424276152394</v>
+        <v>175.182940609832</v>
       </c>
       <c r="D12" t="n">
         <v>172.0989423795122</v>
@@ -23351,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>99.1970559718397</v>
+        <v>160.7938008283375</v>
       </c>
       <c r="H12" t="n">
-        <v>74.01761776987827</v>
+        <v>135.6143626263761</v>
       </c>
       <c r="I12" t="n">
-        <v>47.73936080702769</v>
+        <v>109.3361056635255</v>
       </c>
       <c r="J12" t="n">
-        <v>6.308503921183075</v>
+        <v>60.56291679078635</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.59492586419587</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>140.6605856448969</v>
@@ -23396,7 +23396,7 @@
         <v>249.6350041080896</v>
       </c>
       <c r="V12" t="n">
-        <v>249.2999251801724</v>
+        <v>187.7031803236746</v>
       </c>
       <c r="W12" t="n">
         <v>283.2492567629311</v>
@@ -23405,7 +23405,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y12" t="n">
-        <v>242.8962664135933</v>
+        <v>181.2995215570955</v>
       </c>
     </row>
     <row r="13">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.5563275970632</v>
+        <v>297.8089691758095</v>
       </c>
       <c r="C14" t="n">
-        <v>333.5971194742085</v>
+        <v>266.8497610529548</v>
       </c>
       <c r="D14" t="n">
-        <v>319.1317556432476</v>
+        <v>260.3406823458075</v>
       </c>
       <c r="E14" t="n">
         <v>359.9585549362873</v>
@@ -23509,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>355.003468394956</v>
+        <v>421.7508268162097</v>
       </c>
       <c r="H14" t="n">
-        <v>278.5113685894648</v>
+        <v>345.2587270107184</v>
       </c>
       <c r="I14" t="n">
-        <v>169.9695262315532</v>
+        <v>236.7168846528068</v>
       </c>
       <c r="J14" t="n">
-        <v>5.907111281853091</v>
+        <v>64.6981845792933</v>
       </c>
       <c r="K14" t="n">
         <v>3.62568893017874</v>
@@ -23542,7 +23542,7 @@
         <v>71.28623319118077</v>
       </c>
       <c r="R14" t="n">
-        <v>182.6636989156864</v>
+        <v>115.9163404944328</v>
       </c>
       <c r="S14" t="n">
         <v>225.4745419971901</v>
@@ -23579,7 +23579,7 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D15" t="n">
-        <v>172.0989423795122</v>
+        <v>105.3515839582586</v>
       </c>
       <c r="E15" t="n">
         <v>187.4605452976028</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>94.98114387457362</v>
+        <v>126.469670947465</v>
       </c>
       <c r="H15" t="n">
-        <v>68.78232476459068</v>
+        <v>135.5296831858443</v>
       </c>
       <c r="I15" t="n">
         <v>109.0342284572702</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>59.73454266340464</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.47571131504229</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>140.1162068255656</v>
@@ -23627,7 +23627,7 @@
         <v>137.0042255275825</v>
       </c>
       <c r="T15" t="n">
-        <v>229.1685018787469</v>
+        <v>162.4211434574933</v>
       </c>
       <c r="U15" t="n">
         <v>249.6344272726637</v>
@@ -23734,25 +23734,25 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
-        <v>333.5971194742085</v>
+        <v>266.8497610529548</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>252.384397221994</v>
       </c>
       <c r="E17" t="n">
-        <v>359.9585549362873</v>
+        <v>301.1674816388471</v>
       </c>
       <c r="F17" t="n">
-        <v>340.3553442759288</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>355.003468394956</v>
+        <v>421.7508268162097</v>
       </c>
       <c r="H17" t="n">
-        <v>278.5113685894648</v>
+        <v>345.2587270107184</v>
       </c>
       <c r="I17" t="n">
-        <v>169.9695262315532</v>
+        <v>236.7168846528068</v>
       </c>
       <c r="J17" t="n">
         <v>64.6981845792933</v>
@@ -23794,7 +23794,7 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>258.6443670580397</v>
       </c>
       <c r="X17" t="n">
         <v>348.8168793035129</v>
@@ -23819,7 +23819,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E18" t="n">
-        <v>187.4605452976028</v>
+        <v>128.6694720001626</v>
       </c>
       <c r="F18" t="n">
         <v>173.9843481253239</v>
@@ -23828,13 +23828,13 @@
         <v>94.0376745086092</v>
       </c>
       <c r="H18" t="n">
-        <v>68.7823247645907</v>
+        <v>135.5296831858443</v>
       </c>
       <c r="I18" t="n">
-        <v>42.28687003601652</v>
+        <v>109.0342284572702</v>
       </c>
       <c r="J18" t="n">
-        <v>0.943469365964404</v>
+        <v>59.73454266340462</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>24.47571131504228</v>
       </c>
       <c r="R18" t="n">
-        <v>140.1162068255656</v>
+        <v>73.36884840431199</v>
       </c>
       <c r="S18" t="n">
-        <v>203.7515839488361</v>
+        <v>137.0042255275825</v>
       </c>
       <c r="T18" t="n">
         <v>229.1685018787469</v>
@@ -23977,10 +23977,10 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>293.2111965150337</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
-        <v>340.3553442759289</v>
+        <v>332.3990591521154</v>
       </c>
       <c r="G20" t="n">
         <v>421.7508268162097</v>
@@ -23995,7 +23995,7 @@
         <v>64.6981845792933</v>
       </c>
       <c r="K20" t="n">
-        <v>3.62568893017874</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.538874769927148</v>
+        <v>4.538874769927133</v>
       </c>
       <c r="R20" t="n">
         <v>115.9163404944328</v>
@@ -24025,7 +24025,7 @@
         <v>217.4624478134105</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7544539560958</v>
+        <v>193.5890695888343</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24092,31 +24092,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>24.47571131504229</v>
       </c>
       <c r="R21" t="n">
         <v>140.1162068255656</v>
       </c>
       <c r="S21" t="n">
-        <v>137.0042255275825</v>
+        <v>203.7515839488361</v>
       </c>
       <c r="T21" t="n">
-        <v>162.4211434574933</v>
+        <v>229.1685018787469</v>
       </c>
       <c r="U21" t="n">
-        <v>215.3190652902658</v>
+        <v>190.8433539752235</v>
       </c>
       <c r="V21" t="n">
-        <v>182.5525667589188</v>
+        <v>182.5525667589187</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2492567629311</v>
+        <v>216.5018983416775</v>
       </c>
       <c r="X21" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>242.8962664135933</v>
+        <v>176.1489079923397</v>
       </c>
     </row>
     <row r="22">
@@ -24217,16 +24217,16 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>399.146417573369</v>
+        <v>296.1726401502581</v>
       </c>
       <c r="G23" t="n">
         <v>421.7508268162097</v>
       </c>
       <c r="H23" t="n">
-        <v>242.2849495876075</v>
+        <v>345.2587270107184</v>
       </c>
       <c r="I23" t="n">
-        <v>133.7431072296959</v>
+        <v>236.7168846528068</v>
       </c>
       <c r="J23" t="n">
         <v>64.6981845792933</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>71.28623319118077</v>
+        <v>44.61663395130302</v>
       </c>
       <c r="R23" t="n">
-        <v>182.6636989156864</v>
+        <v>79.68992149257551</v>
       </c>
       <c r="S23" t="n">
         <v>225.4745419971901</v>
@@ -24265,16 +24265,16 @@
         <v>248.7544539560958</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>210.3306645779122</v>
       </c>
       <c r="W23" t="n">
-        <v>222.4179480561824</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>351.2593771553044</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="24">
@@ -24305,7 +24305,7 @@
         <v>135.5296831858443</v>
       </c>
       <c r="I24" t="n">
-        <v>6.060451034159229</v>
+        <v>109.0342284572702</v>
       </c>
       <c r="J24" t="n">
         <v>59.73454266340464</v>
@@ -24329,16 +24329,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>24.47571131504229</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>140.1162068255656</v>
+        <v>37.1424294024547</v>
       </c>
       <c r="S24" t="n">
-        <v>203.7515839488361</v>
+        <v>100.7778065257252</v>
       </c>
       <c r="T24" t="n">
-        <v>229.1685018787469</v>
+        <v>126.194724455636</v>
       </c>
       <c r="U24" t="n">
         <v>249.6344272726637</v>
@@ -24347,13 +24347,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W24" t="n">
-        <v>180.2754793398202</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X24" t="n">
-        <v>127.059286287852</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>152.1969632593172</v>
+        <v>176.6726745743595</v>
       </c>
     </row>
     <row r="25">
@@ -24451,16 +24451,16 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
-        <v>359.9585549362873</v>
+        <v>256.9847775131764</v>
       </c>
       <c r="F26" t="n">
-        <v>399.146417573369</v>
+        <v>296.1726401502581</v>
       </c>
       <c r="G26" t="n">
-        <v>363.3936833444017</v>
+        <v>318.7770493930988</v>
       </c>
       <c r="H26" t="n">
-        <v>345.2587270107184</v>
+        <v>318.5891277708406</v>
       </c>
       <c r="I26" t="n">
         <v>236.7168846528068</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>71.28623319118077</v>
       </c>
       <c r="R26" t="n">
-        <v>79.68992149257551</v>
+        <v>182.6636989156864</v>
       </c>
       <c r="S26" t="n">
-        <v>122.5007645740791</v>
+        <v>225.4745419971901</v>
       </c>
       <c r="T26" t="n">
         <v>217.4624478134105</v>
@@ -24530,16 +24530,16 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
-        <v>84.4867678744919</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>57.81125550675191</v>
+        <v>160.7850329298628</v>
       </c>
       <c r="H27" t="n">
-        <v>44.83038003156821</v>
+        <v>135.5296831858443</v>
       </c>
       <c r="I27" t="n">
         <v>109.0342284572702</v>
@@ -24566,25 +24566,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>24.47571131504229</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>140.1162068255656</v>
+        <v>37.1424294024547</v>
       </c>
       <c r="S27" t="n">
-        <v>203.7515839488361</v>
+        <v>100.7778065257252</v>
       </c>
       <c r="T27" t="n">
-        <v>229.1685018787469</v>
+        <v>126.194724455636</v>
       </c>
       <c r="U27" t="n">
         <v>249.6344272726637</v>
       </c>
       <c r="V27" t="n">
-        <v>146.3261477570614</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>217.0256649236973</v>
       </c>
       <c r="X27" t="n">
         <v>230.033063710963</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.5825501739522</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>230.6233420510975</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
-        <v>333.2889556964095</v>
+        <v>333.2889556964096</v>
       </c>
       <c r="F29" t="n">
-        <v>399.146417573369</v>
+        <v>296.1726401502581</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7508268162097</v>
+        <v>318.7770493930988</v>
       </c>
       <c r="H29" t="n">
         <v>345.2587270107184</v>
@@ -24736,7 +24736,7 @@
         <v>217.4624478134105</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7544539560958</v>
+        <v>145.7806765329848</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24748,7 +24748,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.9551989720712</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.31345422675835</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
         <v>203.8424276152394</v>
@@ -24770,10 +24770,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
-        <v>71.01057070221299</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>57.81125550675191</v>
+        <v>160.7850329298628</v>
       </c>
       <c r="H30" t="n">
         <v>135.5296831858443</v>
@@ -24812,19 +24812,19 @@
         <v>203.7515839488361</v>
       </c>
       <c r="T30" t="n">
-        <v>126.194724455636</v>
+        <v>229.1685018787469</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6344272726637</v>
+        <v>146.6606498495528</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>146.3261477570614</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>180.2754793398202</v>
       </c>
       <c r="X30" t="n">
-        <v>230.033063710963</v>
+        <v>139.3337605566869</v>
       </c>
       <c r="Y30" t="n">
         <v>242.8962664135933</v>
@@ -24925,7 +24925,7 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>359.9585549362873</v>
+        <v>256.9847775131764</v>
       </c>
       <c r="F32" t="n">
         <v>399.146417573369</v>
@@ -24973,19 +24973,19 @@
         <v>217.4624478134105</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7544539560958</v>
+        <v>145.7806765329848</v>
       </c>
       <c r="V32" t="n">
         <v>286.6348427611454</v>
       </c>
       <c r="W32" t="n">
-        <v>222.4179480561824</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
         <v>245.843101880402</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.9551989720712</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>85.03897995792352</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
         <v>203.8424276152394</v>
@@ -25004,19 +25004,19 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
-        <v>187.4605452976028</v>
+        <v>84.4867678744919</v>
       </c>
       <c r="F33" t="n">
-        <v>173.9843481253239</v>
+        <v>71.01057070221299</v>
       </c>
       <c r="G33" t="n">
         <v>160.7850329298628</v>
       </c>
       <c r="H33" t="n">
-        <v>32.5559057627334</v>
+        <v>135.5296831858443</v>
       </c>
       <c r="I33" t="n">
-        <v>6.060451034159229</v>
+        <v>109.0342284572702</v>
       </c>
       <c r="J33" t="n">
         <v>59.73454266340464</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>24.47571131504229</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>140.1162068255656</v>
@@ -25055,13 +25055,13 @@
         <v>249.6344272726637</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>146.3261477570614</v>
       </c>
       <c r="W33" t="n">
-        <v>192.549953608655</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
-        <v>230.033063710963</v>
+        <v>163.8094718717292</v>
       </c>
       <c r="Y33" t="n">
         <v>242.8962664135933</v>
@@ -25168,7 +25168,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>349.8528548302004</v>
+        <v>363.2672451485855</v>
       </c>
       <c r="H35" t="n">
         <v>345.2587270107184</v>
@@ -25177,7 +25177,7 @@
         <v>236.7168846528068</v>
       </c>
       <c r="J35" t="n">
-        <v>6.214602911669097</v>
+        <v>64.6981845792933</v>
       </c>
       <c r="K35" t="n">
         <v>3.62568893017874</v>
@@ -25201,16 +25201,16 @@
         <v>71.28623319118077</v>
       </c>
       <c r="R35" t="n">
-        <v>182.6636989156864</v>
+        <v>110.7657269296769</v>
       </c>
       <c r="S35" t="n">
-        <v>225.4745419971901</v>
+        <v>153.5765700111805</v>
       </c>
       <c r="T35" t="n">
         <v>217.4624478134105</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7544539560958</v>
+        <v>176.8564819700862</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25219,10 +25219,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
-        <v>276.9189073175036</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>306.0310044091729</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>116.1147853950252</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
         <v>203.8424276152394</v>
@@ -25256,7 +25256,7 @@
         <v>109.0342284572702</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>59.73454266340464</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25289,19 +25289,19 @@
         <v>229.1685018787469</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6344272726637</v>
+        <v>177.7364552866541</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>177.4019531941628</v>
       </c>
       <c r="W36" t="n">
-        <v>211.3512847769218</v>
+        <v>211.3512847769215</v>
       </c>
       <c r="X36" t="n">
-        <v>226.4398726490907</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>170.9982944275841</v>
+        <v>179.5685326883161</v>
       </c>
     </row>
     <row r="37">
@@ -25402,10 +25402,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>332.3990591521154</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7508268162097</v>
+        <v>355.003468394956</v>
       </c>
       <c r="H38" t="n">
         <v>345.2587270107184</v>
@@ -25438,7 +25438,7 @@
         <v>71.28623319118077</v>
       </c>
       <c r="R38" t="n">
-        <v>115.9163404944328</v>
+        <v>182.6636989156864</v>
       </c>
       <c r="S38" t="n">
         <v>225.4745419971901</v>
@@ -25453,13 +25453,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>258.6443670580397</v>
+        <v>266.6006521818533</v>
       </c>
       <c r="X38" t="n">
-        <v>282.0695208822593</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
-        <v>319.137903097742</v>
+        <v>311.1816179739285</v>
       </c>
     </row>
     <row r="39">
@@ -25472,16 +25472,16 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>137.0950691939858</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>120.7131868763492</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>139.668986142926</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
         <v>160.7850329298628</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>24.47571131504229</v>
       </c>
       <c r="R39" t="n">
         <v>140.1162068255656</v>
@@ -25526,16 +25526,16 @@
         <v>229.1685018787469</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6344272726637</v>
+        <v>190.8433539752235</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>182.5525667589188</v>
       </c>
       <c r="W39" t="n">
         <v>216.5018983416775</v>
       </c>
       <c r="X39" t="n">
-        <v>230.033063710963</v>
+        <v>163.2857052897094</v>
       </c>
       <c r="Y39" t="n">
         <v>242.8962664135933</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>297.8089691758095</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
         <v>333.5971194742085</v>
@@ -25639,7 +25639,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>332.3990591521154</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
         <v>421.7508268162097</v>
@@ -25654,7 +25654,7 @@
         <v>64.6981845792933</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>3.62568893017874</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>16.1208488239193</v>
+        <v>4.538874769927148</v>
       </c>
       <c r="R41" t="n">
         <v>182.6636989156864</v>
@@ -25681,10 +25681,10 @@
         <v>225.4745419971901</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4624478134105</v>
+        <v>158.6713745159703</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7544539560958</v>
+        <v>182.0070955348422</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25709,16 +25709,16 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>137.0950691939858</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
-        <v>120.7131868763492</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
-        <v>173.9843481253239</v>
+        <v>107.2369897040703</v>
       </c>
       <c r="G42" t="n">
         <v>160.7850329298628</v>
@@ -25760,7 +25760,7 @@
         <v>203.7515839488361</v>
       </c>
       <c r="T42" t="n">
-        <v>229.1685018787469</v>
+        <v>170.3774285813067</v>
       </c>
       <c r="U42" t="n">
         <v>249.6344272726637</v>
@@ -25769,13 +25769,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>224.4581834654909</v>
+        <v>216.5018983416775</v>
       </c>
       <c r="X42" t="n">
-        <v>230.033063710963</v>
+        <v>163.2857052897094</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.1489079923397</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.5563275970632</v>
+        <v>297.8089691758095</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
@@ -25876,10 +25876,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>332.3990591521154</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>355.003468394956</v>
+        <v>421.7508268162097</v>
       </c>
       <c r="H44" t="n">
         <v>345.2587270107184</v>
@@ -25912,19 +25912,19 @@
         <v>71.28623319118077</v>
       </c>
       <c r="R44" t="n">
-        <v>123.8726256182462</v>
+        <v>182.6636989156864</v>
       </c>
       <c r="S44" t="n">
         <v>225.4745419971901</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4624478134105</v>
+        <v>150.7150893921568</v>
       </c>
       <c r="U44" t="n">
         <v>248.7544539560958</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>254.5133687035829</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
@@ -25955,7 +25955,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
-        <v>107.2369897040703</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
         <v>160.7850329298628</v>
@@ -25967,7 +25967,7 @@
         <v>109.0342284572702</v>
       </c>
       <c r="J45" t="n">
-        <v>25.41918068100674</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>24.47571131504229</v>
       </c>
       <c r="R45" t="n">
         <v>140.1162068255656</v>
@@ -25997,13 +25997,13 @@
         <v>203.7515839488361</v>
       </c>
       <c r="T45" t="n">
-        <v>162.4211434574933</v>
+        <v>229.1685018787469</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6344272726637</v>
+        <v>182.88706885141</v>
       </c>
       <c r="V45" t="n">
-        <v>249.2999251801724</v>
+        <v>183.4960361248832</v>
       </c>
       <c r="W45" t="n">
         <v>216.5018983416775</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>430594.0185884616</v>
+        <v>430594.0185884614</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434829.0582248634</v>
+        <v>434829.0582248633</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>434829.0582248633</v>
+        <v>434829.0582248634</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>451133.7807636732</v>
+        <v>451133.7807636734</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>451133.7807636735</v>
+        <v>451133.7807636734</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>451133.7807636734</v>
+        <v>451133.7807636735</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>437605.8223132283</v>
+        <v>437605.8223132286</v>
       </c>
     </row>
     <row r="14">
@@ -26322,16 +26322,16 @@
         <v>141754.9928791209</v>
       </c>
       <c r="E2" t="n">
-        <v>180892.9178734859</v>
+        <v>180892.9178734858</v>
       </c>
       <c r="F2" t="n">
         <v>182658.5399308001</v>
       </c>
       <c r="G2" t="n">
+        <v>182658.5399308001</v>
+      </c>
+      <c r="H2" t="n">
         <v>182658.5399308</v>
-      </c>
-      <c r="H2" t="n">
-        <v>182658.5399308001</v>
       </c>
       <c r="I2" t="n">
         <v>188987.3671377546</v>
@@ -26349,10 +26349,10 @@
         <v>183736.3663131815</v>
       </c>
       <c r="N2" t="n">
+        <v>182658.5399308</v>
+      </c>
+      <c r="O2" t="n">
         <v>182658.5399308001</v>
-      </c>
-      <c r="O2" t="n">
-        <v>182658.5399308</v>
       </c>
       <c r="P2" t="n">
         <v>182658.5399308001</v>
@@ -26377,7 +26377,7 @@
         <v>134287.3363051134</v>
       </c>
       <c r="F3" t="n">
-        <v>4697.878562082159</v>
+        <v>4697.87856208224</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9633.365567392897</v>
+        <v>9633.365567392893</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>7605.940187071219</v>
+        <v>7605.940187071144</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>10135.29096441987</v>
       </c>
       <c r="E4" t="n">
-        <v>8555.176924964371</v>
+        <v>8555.176924964373</v>
       </c>
       <c r="F4" t="n">
         <v>8674.163926771556</v>
@@ -26450,16 +26450,16 @@
         <v>10230.07249135874</v>
       </c>
       <c r="M4" t="n">
-        <v>8939.14181993358</v>
+        <v>8939.141819933595</v>
       </c>
       <c r="N4" t="n">
-        <v>8674.163926771558</v>
+        <v>8674.163926771556</v>
       </c>
       <c r="O4" t="n">
+        <v>8674.163926771555</v>
+      </c>
+      <c r="P4" t="n">
         <v>8674.163926771556</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8674.163926771558</v>
       </c>
     </row>
     <row r="5">
@@ -26502,7 +26502,7 @@
         <v>16235.38359155356</v>
       </c>
       <c r="M5" t="n">
-        <v>14345.97462097778</v>
+        <v>14345.9746209778</v>
       </c>
       <c r="N5" t="n">
         <v>14032.81731624064</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-206714.2443999183</v>
+        <v>-223784.1429681998</v>
       </c>
       <c r="C6" t="n">
-        <v>91251.17364436285</v>
+        <v>74181.27507608145</v>
       </c>
       <c r="D6" t="n">
-        <v>91251.17364436288</v>
+        <v>74181.27507608151</v>
       </c>
       <c r="E6" t="n">
-        <v>24419.60805205937</v>
+        <v>9213.420197795325</v>
       </c>
       <c r="F6" t="n">
-        <v>155253.6801257058</v>
+        <v>140131.5695122661</v>
       </c>
       <c r="G6" t="n">
-        <v>159951.5586877879</v>
+        <v>144829.4480743484</v>
       </c>
       <c r="H6" t="n">
-        <v>159951.5586877879</v>
+        <v>144829.4480743483</v>
       </c>
       <c r="I6" t="n">
-        <v>152888.5454874494</v>
+        <v>138067.8075981505</v>
       </c>
       <c r="J6" t="n">
-        <v>162521.9110548423</v>
+        <v>147701.1731655435</v>
       </c>
       <c r="K6" t="n">
-        <v>162521.9110548423</v>
+        <v>147701.1731655435</v>
       </c>
       <c r="L6" t="n">
-        <v>162521.9110548423</v>
+        <v>147701.1731655434</v>
       </c>
       <c r="M6" t="n">
-        <v>152845.3096851989</v>
+        <v>137774.5241375871</v>
       </c>
       <c r="N6" t="n">
-        <v>159951.5586877879</v>
+        <v>144829.4480743483</v>
       </c>
       <c r="O6" t="n">
-        <v>159951.5586877879</v>
+        <v>144829.4480743484</v>
       </c>
       <c r="P6" t="n">
-        <v>159951.5586877879</v>
+        <v>144829.4480743484</v>
       </c>
     </row>
   </sheetData>
@@ -26801,13 +26801,13 @@
         <v>61.59674485649781</v>
       </c>
       <c r="F4" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="G4" t="n">
         <v>66.74735842125364</v>
       </c>
       <c r="H4" t="n">
-        <v>66.74735842125362</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="I4" t="n">
         <v>102.9737774231109</v>
@@ -26822,16 +26822,16 @@
         <v>102.9737774231109</v>
       </c>
       <c r="M4" t="n">
-        <v>71.89797198600928</v>
+        <v>71.89797198600958</v>
       </c>
       <c r="N4" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="O4" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="P4" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125364</v>
       </c>
     </row>
   </sheetData>
@@ -27023,7 +27023,7 @@
         <v>61.59674485649781</v>
       </c>
       <c r="F4" t="n">
-        <v>5.150613564755672</v>
+        <v>5.150613564755953</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>36.22641900185731</v>
+        <v>36.22641900185729</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>30.52093941939623</v>
+        <v>30.52093941939593</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27269,7 +27269,7 @@
         <v>61.59674485649781</v>
       </c>
       <c r="N4" t="n">
-        <v>5.150613564755672</v>
+        <v>5.150613564755953</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31153,7 +31153,7 @@
         <v>84.90045714900501</v>
       </c>
       <c r="R3" t="n">
-        <v>41.295040935999</v>
+        <v>41.29504093599901</v>
       </c>
       <c r="S3" t="n">
         <v>12.35409002288469</v>
@@ -31199,10 +31199,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5576042335217277</v>
+        <v>0.5576042335217276</v>
       </c>
       <c r="H4" t="n">
-        <v>4.957608548947729</v>
+        <v>4.957608548947728</v>
       </c>
       <c r="I4" t="n">
         <v>16.76868004081705</v>
@@ -31223,7 +31223,7 @@
         <v>85.32865511701135</v>
       </c>
       <c r="O4" t="n">
-        <v>78.81482384359842</v>
+        <v>78.8148238435984</v>
       </c>
       <c r="P4" t="n">
         <v>67.43969747975511</v>
@@ -31235,7 +31235,7 @@
         <v>25.07191399089513</v>
       </c>
       <c r="S4" t="n">
-        <v>9.717521051465013</v>
+        <v>9.717521051465015</v>
       </c>
       <c r="T4" t="n">
         <v>2.382490815956472</v>
@@ -35494,19 +35494,19 @@
         <v>24.67276923010786</v>
       </c>
       <c r="L12" t="n">
-        <v>56.76012512405885</v>
+        <v>9.149011212996186</v>
       </c>
       <c r="M12" t="n">
-        <v>39.27183799088959</v>
+        <v>61.59674485649781</v>
       </c>
       <c r="N12" t="n">
         <v>61.59674485649781</v>
       </c>
       <c r="O12" t="n">
+        <v>25.28620704545446</v>
+      </c>
+      <c r="P12" t="n">
         <v>61.59674485649781</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>54.05382217085804</v>
       </c>
       <c r="M14" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="N14" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="O14" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="P14" t="n">
         <v>9.996673283880227</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>26.08859255529296</v>
       </c>
       <c r="L15" t="n">
-        <v>25.42730126311324</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="M15" t="n">
-        <v>41.49342349475856</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="N15" t="n">
         <v>63.87712911812022</v>
       </c>
       <c r="O15" t="n">
-        <v>66.74735842125365</v>
+        <v>40.83213220257875</v>
       </c>
       <c r="P15" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>26.08859255529296</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>11.0527603971581</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="M18" t="n">
-        <v>41.49342349475859</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="N18" t="n">
-        <v>63.87712911812025</v>
+        <v>64.05049545473831</v>
       </c>
       <c r="O18" t="n">
-        <v>55.03330673191572</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="P18" t="n">
-        <v>66.74735842125364</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,13 +36129,13 @@
         <v>54.05382217085804</v>
       </c>
       <c r="M20" t="n">
-        <v>66.74735842125362</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="N20" t="n">
-        <v>66.74735842125362</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="O20" t="n">
-        <v>66.74735842125362</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="P20" t="n">
         <v>9.996673283880227</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>26.08859255529296</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>11.05276039715807</v>
       </c>
       <c r="M21" t="n">
-        <v>41.49342349475856</v>
+        <v>55.86796436071367</v>
       </c>
       <c r="N21" t="n">
         <v>63.87712911812022</v>
       </c>
       <c r="O21" t="n">
-        <v>66.74735842125362</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="P21" t="n">
-        <v>55.03330673191577</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>26.08859255529296</v>
       </c>
       <c r="L24" t="n">
-        <v>11.05276039715807</v>
+        <v>37.02656729122135</v>
       </c>
       <c r="M24" t="n">
         <v>102.9737774231109</v>
       </c>
       <c r="N24" t="n">
-        <v>89.85093601218352</v>
+        <v>63.87712911812022</v>
       </c>
       <c r="O24" t="n">
         <v>102.9737774231109</v>
@@ -36679,13 +36679,13 @@
         <v>26.08859255529296</v>
       </c>
       <c r="L27" t="n">
-        <v>102.9737774231109</v>
+        <v>72.72462820425794</v>
       </c>
       <c r="M27" t="n">
         <v>102.9737774231109</v>
       </c>
       <c r="N27" t="n">
-        <v>72.72462820425795</v>
+        <v>102.9737774231109</v>
       </c>
       <c r="O27" t="n">
         <v>102.9737774231109</v>
@@ -36922,10 +36922,10 @@
         <v>102.9737774231109</v>
       </c>
       <c r="N30" t="n">
+        <v>102.9737774231109</v>
+      </c>
+      <c r="O30" t="n">
         <v>89.85093601218352</v>
-      </c>
-      <c r="O30" t="n">
-        <v>102.9737774231109</v>
       </c>
       <c r="P30" t="n">
         <v>74.79470921802728</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>26.08859255529296</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>11.05276039715807</v>
+        <v>102.9737774231109</v>
       </c>
       <c r="M33" t="n">
-        <v>89.85093601218352</v>
+        <v>98.8132207595509</v>
       </c>
       <c r="N33" t="n">
         <v>102.9737774231109</v>
@@ -37165,7 +37165,7 @@
         <v>102.9737774231109</v>
       </c>
       <c r="P33" t="n">
-        <v>74.79470921802728</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>54.05382217085804</v>
       </c>
       <c r="M35" t="n">
-        <v>71.89797198600928</v>
+        <v>71.89797198600958</v>
       </c>
       <c r="N35" t="n">
-        <v>71.89797198600928</v>
+        <v>71.89797198600958</v>
       </c>
       <c r="O35" t="n">
-        <v>71.89797198600928</v>
+        <v>71.89797198600958</v>
       </c>
       <c r="P35" t="n">
         <v>9.996673283880227</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>26.08859255529296</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>11.05276039715807</v>
+        <v>71.89797198600958</v>
       </c>
       <c r="M36" t="n">
-        <v>41.49342349475856</v>
+        <v>71.89797198600958</v>
       </c>
       <c r="N36" t="n">
-        <v>63.87712911812022</v>
+        <v>68.9930034209183</v>
       </c>
       <c r="O36" t="n">
-        <v>70.27704182760677</v>
+        <v>71.89797198600958</v>
       </c>
       <c r="P36" t="n">
-        <v>71.89797198600928</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>54.05382217085804</v>
       </c>
       <c r="M38" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="N38" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="O38" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="P38" t="n">
         <v>9.996673283880227</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>26.08859255529296</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>40.47567084872991</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="M39" t="n">
-        <v>41.49342349475856</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="N39" t="n">
-        <v>63.87712911812022</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="O39" t="n">
-        <v>25.61039628034402</v>
+        <v>64.05049545473831</v>
       </c>
       <c r="P39" t="n">
-        <v>66.74735842125365</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>54.05382217085804</v>
       </c>
       <c r="M41" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="N41" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="O41" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="P41" t="n">
         <v>9.996673283880227</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.42730126311324</v>
+        <v>11.05276039715807</v>
       </c>
       <c r="M42" t="n">
-        <v>41.49342349475856</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="N42" t="n">
         <v>63.87712911812022</v>
       </c>
       <c r="O42" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125362</v>
       </c>
       <c r="P42" t="n">
-        <v>66.74735842125365</v>
+        <v>55.86796436071363</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>54.05382217085804</v>
       </c>
       <c r="M44" t="n">
-        <v>66.74735842125376</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="N44" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="O44" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="P44" t="n">
         <v>9.996673283880227</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.08859255529296</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>40.83213220257882</v>
+        <v>11.05276039715807</v>
       </c>
       <c r="M45" t="n">
-        <v>66.74735842125365</v>
+        <v>55.86796436071367</v>
       </c>
       <c r="N45" t="n">
         <v>63.87712911812022</v>
       </c>
       <c r="O45" t="n">
-        <v>66.74735842125365</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>66.74735842125364</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
